--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3965.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3965.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191774814593517</v>
+        <v>1.146379828453064</v>
       </c>
       <c r="B1">
-        <v>2.240220455171051</v>
+        <v>2.570617198944092</v>
       </c>
       <c r="C1">
-        <v>5.909279859102083</v>
+        <v>2.889833927154541</v>
       </c>
       <c r="D1">
-        <v>3.464520297127056</v>
+        <v>2.895297050476074</v>
       </c>
       <c r="E1">
-        <v>1.425392582025124</v>
+        <v>0.6916077136993408</v>
       </c>
     </row>
   </sheetData>
